--- a/Code/Results/Cases/Case_1_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8152801430948386</v>
+        <v>0.9888435254646026</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08135155325915377</v>
+        <v>0.1960285505503165</v>
       </c>
       <c r="E2">
-        <v>0.1046396783781622</v>
+        <v>0.254058699034891</v>
       </c>
       <c r="F2">
-        <v>0.9797486874888079</v>
+        <v>2.041934024148162</v>
       </c>
       <c r="G2">
-        <v>0.000829751467909097</v>
+        <v>0.002510227643564386</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1739290933105049</v>
+        <v>0.3680183331625582</v>
       </c>
       <c r="K2">
-        <v>1.110167316352289</v>
+        <v>0.3337214568804541</v>
       </c>
       <c r="L2">
-        <v>0.1739478444071381</v>
+        <v>0.1148595582085647</v>
       </c>
       <c r="M2">
-        <v>0.1969941553089534</v>
+        <v>0.1991049508157339</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.499009209146351</v>
+        <v>5.111854132152075</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7286774805644711</v>
+        <v>0.9691841713211886</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.07872550145286539</v>
+        <v>0.1961467046099656</v>
       </c>
       <c r="E3">
-        <v>0.1067980548893868</v>
+        <v>0.2555050508993162</v>
       </c>
       <c r="F3">
-        <v>0.9692497681918013</v>
+        <v>2.051232215889364</v>
       </c>
       <c r="G3">
-        <v>0.0008337152804047704</v>
+        <v>0.002512851120024611</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1782133674674902</v>
+        <v>0.3700752552627353</v>
       </c>
       <c r="K3">
-        <v>0.9746830593270488</v>
+        <v>0.2915605766560532</v>
       </c>
       <c r="L3">
-        <v>0.1512543598824365</v>
+        <v>0.1085986163030057</v>
       </c>
       <c r="M3">
-        <v>0.1736178966691995</v>
+        <v>0.1933142848010725</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.478873000878508</v>
+        <v>5.137784986601332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6760375426580367</v>
+        <v>0.9575015919575947</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07717896309331707</v>
+        <v>0.1962734576156038</v>
       </c>
       <c r="E4">
-        <v>0.1082029985586637</v>
+        <v>0.2564495180953346</v>
       </c>
       <c r="F4">
-        <v>0.9643105780958408</v>
+        <v>2.057812302379375</v>
       </c>
       <c r="G4">
-        <v>0.0008362325675707316</v>
+        <v>0.002514549278901908</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1809509334122659</v>
+        <v>0.3714069037410188</v>
       </c>
       <c r="K4">
-        <v>0.8914752371699421</v>
+        <v>0.2656168504571212</v>
       </c>
       <c r="L4">
-        <v>0.1373561479017766</v>
+        <v>0.1047847123493426</v>
       </c>
       <c r="M4">
-        <v>0.1593603218595021</v>
+        <v>0.1898312177501964</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.470657200464387</v>
+        <v>5.155995221828078</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6547106935983891</v>
+        <v>0.9528390455586475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.07656487730745454</v>
+        <v>0.1963387881446863</v>
       </c>
       <c r="E5">
-        <v>0.1087954175442718</v>
+        <v>0.2568486065458897</v>
       </c>
       <c r="F5">
-        <v>0.9626635783462376</v>
+        <v>2.060712966378418</v>
       </c>
       <c r="G5">
-        <v>0.0008372797198010422</v>
+        <v>0.002515263317904631</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1820933375317249</v>
+        <v>0.3719668673353853</v>
       </c>
       <c r="K5">
-        <v>0.8575512653743544</v>
+        <v>0.2550308866107684</v>
       </c>
       <c r="L5">
-        <v>0.1316995057619295</v>
+        <v>0.1032382661623146</v>
       </c>
       <c r="M5">
-        <v>0.1535718473921612</v>
+        <v>0.1884301877890806</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.468313725993937</v>
+        <v>5.163991899706161</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6511766137337816</v>
+        <v>0.9520707804224173</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0764638717868209</v>
+        <v>0.1963504637127116</v>
       </c>
       <c r="E6">
-        <v>0.1088949855865069</v>
+        <v>0.256915733970704</v>
       </c>
       <c r="F6">
-        <v>0.9624118111170645</v>
+        <v>2.061207866435282</v>
       </c>
       <c r="G6">
-        <v>0.0008374548971469297</v>
+        <v>0.002515383215778778</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1822846505942679</v>
+        <v>0.3720608950878068</v>
       </c>
       <c r="K6">
-        <v>0.8519169311932444</v>
+        <v>0.253272286333555</v>
       </c>
       <c r="L6">
-        <v>0.1307605912969265</v>
+        <v>0.1029819516550603</v>
       </c>
       <c r="M6">
-        <v>0.1526119121034952</v>
+        <v>0.1881986600298688</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.467984174421616</v>
+        <v>5.165354533513693</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6757494306985166</v>
+        <v>0.9574383128922932</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07717061650483714</v>
+        <v>0.1962742832419409</v>
       </c>
       <c r="E7">
-        <v>0.1082109077705997</v>
+        <v>0.2564548427671394</v>
       </c>
       <c r="F7">
-        <v>0.9642869021645666</v>
+        <v>2.057850533828962</v>
       </c>
       <c r="G7">
-        <v>0.0008362466029603463</v>
+        <v>0.002514558819274704</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1809662317715337</v>
+        <v>0.3714143854896212</v>
       </c>
       <c r="K7">
-        <v>0.8910178060313854</v>
+        <v>0.2654741390687718</v>
       </c>
       <c r="L7">
-        <v>0.1372798346697692</v>
+        <v>0.1047638248915419</v>
       </c>
       <c r="M7">
-        <v>0.159282172104195</v>
+        <v>0.1898122484980753</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.470621577757782</v>
+        <v>5.156100735698061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7853023900266862</v>
+        <v>0.9819846993280237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.08043215816403659</v>
+        <v>0.1960580676029267</v>
       </c>
       <c r="E8">
-        <v>0.1053672572238966</v>
+        <v>0.2545457118673724</v>
       </c>
       <c r="F8">
-        <v>0.9758076771278894</v>
+        <v>2.044959400640728</v>
       </c>
       <c r="G8">
-        <v>0.0008311010733484964</v>
+        <v>0.002511114131211626</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.175384051616938</v>
+        <v>0.3687133234936604</v>
       </c>
       <c r="K8">
-        <v>1.063449560421759</v>
+        <v>0.3191965106682346</v>
       </c>
       <c r="L8">
-        <v>0.1661144914432953</v>
+        <v>0.1126945590790172</v>
       </c>
       <c r="M8">
-        <v>0.1889126859268941</v>
+        <v>0.1970933767317256</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.491181583993892</v>
+        <v>5.120320315984202</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.004865720956587</v>
+        <v>1.033180689164169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08737117652127324</v>
+        <v>0.1960622099243778</v>
       </c>
       <c r="E9">
-        <v>0.1004299420565102</v>
+        <v>0.2512481637570971</v>
       </c>
       <c r="F9">
-        <v>1.010989829714482</v>
+        <v>2.026582046808727</v>
       </c>
       <c r="G9">
-        <v>0.0008216568179781346</v>
+        <v>0.002505049103377309</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1652901272953691</v>
+        <v>0.3639600223844472</v>
       </c>
       <c r="K9">
-        <v>1.401979228085736</v>
+        <v>0.4240745291840256</v>
       </c>
       <c r="L9">
-        <v>0.2230401291056694</v>
+        <v>0.1284829461688162</v>
       </c>
       <c r="M9">
-        <v>0.2478948156540106</v>
+        <v>0.2119412074431715</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.566247805755722</v>
+        <v>5.068299715067866</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.169799455594415</v>
+        <v>1.07263723059981</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09283114483364585</v>
+        <v>0.1963237889539187</v>
       </c>
       <c r="E10">
-        <v>0.09720175861676683</v>
+        <v>0.2490957325793355</v>
       </c>
       <c r="F10">
-        <v>1.045444279059794</v>
+        <v>2.017277789833258</v>
       </c>
       <c r="G10">
-        <v>0.0008150879581865092</v>
+        <v>0.002501009624164248</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1583989988923107</v>
+        <v>0.3607968768074938</v>
       </c>
       <c r="K10">
-        <v>1.651774792804616</v>
+        <v>0.5008204582658209</v>
       </c>
       <c r="L10">
-        <v>0.265244711241877</v>
+        <v>0.1402219052314138</v>
       </c>
       <c r="M10">
-        <v>0.2919428548110119</v>
+        <v>0.2231915708743557</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.645292982564257</v>
+        <v>5.041125984329256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.245793893491481</v>
+        <v>1.090982636389043</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09540091031683318</v>
+        <v>0.1964984154201801</v>
       </c>
       <c r="E11">
-        <v>0.09582212351165609</v>
+        <v>0.2481748477935435</v>
       </c>
       <c r="F11">
-        <v>1.063208129998543</v>
+        <v>2.013954466768595</v>
       </c>
       <c r="G11">
-        <v>0.0008121742965012771</v>
+        <v>0.002499261518042695</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1553792148713944</v>
+        <v>0.3594288709765854</v>
       </c>
       <c r="K11">
-        <v>1.765849567734023</v>
+        <v>0.5356634244135989</v>
       </c>
       <c r="L11">
-        <v>0.2845633461975865</v>
+        <v>0.1455915613760226</v>
       </c>
       <c r="M11">
-        <v>0.3121793554903434</v>
+        <v>0.2283827478440799</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.687085595213432</v>
+        <v>5.031159396204885</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.274725178003877</v>
+        <v>1.097986086158812</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09638701895723756</v>
+        <v>0.1965724968063398</v>
       </c>
       <c r="E12">
-        <v>0.09531267701430313</v>
+        <v>0.247834482998134</v>
       </c>
       <c r="F12">
-        <v>1.070255146416415</v>
+        <v>2.012826570044027</v>
       </c>
       <c r="G12">
-        <v>0.0008110812003446584</v>
+        <v>0.002498612355301897</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1542523620683895</v>
+        <v>0.3589210074769156</v>
       </c>
       <c r="K12">
-        <v>1.809127923569235</v>
+        <v>0.5488471139563842</v>
       </c>
       <c r="L12">
-        <v>0.2918991458974034</v>
+        <v>0.1476290538646623</v>
       </c>
       <c r="M12">
-        <v>0.319874736924632</v>
+        <v>0.2303589370510579</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.703808093702747</v>
+        <v>5.027729395498795</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.268487215443031</v>
+        <v>1.096475266587476</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09617405444743099</v>
+        <v>0.196556189019546</v>
       </c>
       <c r="E13">
-        <v>0.09542181416090045</v>
+        <v>0.247907415475165</v>
       </c>
       <c r="F13">
-        <v>1.068722875593963</v>
+        <v>2.013063678238808</v>
       </c>
       <c r="G13">
-        <v>0.0008113161704269191</v>
+        <v>0.002498751595416261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1544943061906321</v>
+        <v>0.3590299330751834</v>
       </c>
       <c r="K13">
-        <v>1.799803277100494</v>
+        <v>0.5460082515321005</v>
       </c>
       <c r="L13">
-        <v>0.2903182982679908</v>
+        <v>0.1471900621898357</v>
       </c>
       <c r="M13">
-        <v>0.3182159029567373</v>
+        <v>0.2299328689149789</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.700165770495516</v>
+        <v>5.028452806247202</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.248170914614946</v>
+        <v>1.0915576864397</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09548177389829249</v>
+        <v>0.1965043509891089</v>
       </c>
       <c r="E14">
-        <v>0.09577994942792056</v>
+        <v>0.2481466784840212</v>
       </c>
       <c r="F14">
-        <v>1.063781357000451</v>
+        <v>2.013859058126258</v>
       </c>
       <c r="G14">
-        <v>0.0008120841642618874</v>
+        <v>0.002499207854610553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1552861730489656</v>
+        <v>0.3593868850680724</v>
       </c>
       <c r="K14">
-        <v>1.769408383123306</v>
+        <v>0.5367482703105964</v>
       </c>
       <c r="L14">
-        <v>0.2851664426253251</v>
+        <v>0.1457591052664071</v>
       </c>
       <c r="M14">
-        <v>0.3128117907151804</v>
+        <v>0.2285451224347312</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.68844305304458</v>
+        <v>5.030870312544522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.235747092455597</v>
+        <v>1.088552860431435</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09505944365358943</v>
+        <v>0.1964736332051018</v>
       </c>
       <c r="E15">
-        <v>0.09600101592598875</v>
+        <v>0.2482943212377409</v>
       </c>
       <c r="F15">
-        <v>1.060796843926056</v>
+        <v>2.014363250684411</v>
       </c>
       <c r="G15">
-        <v>0.0008125559022178106</v>
+        <v>0.002499488992855511</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1557733899015514</v>
+        <v>0.3596068521500815</v>
       </c>
       <c r="K15">
-        <v>1.75080167794269</v>
+        <v>0.5310748668470069</v>
       </c>
       <c r="L15">
-        <v>0.2820135144281863</v>
+        <v>0.1448831356116642</v>
       </c>
       <c r="M15">
-        <v>0.3095059301591476</v>
+        <v>0.2276964382456228</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.681381083676627</v>
+        <v>5.032395913380014</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.164853725621413</v>
+        <v>1.071446244158921</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09266498783770771</v>
+        <v>0.1963134922601171</v>
       </c>
       <c r="E16">
-        <v>0.09729372725024099</v>
+        <v>0.2491570849543239</v>
       </c>
       <c r="F16">
-        <v>1.044327081320574</v>
+        <v>2.017513258096031</v>
       </c>
       <c r="G16">
-        <v>0.0008152798329243146</v>
+        <v>0.002501125662634992</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1585986746877808</v>
+        <v>0.3608877039713789</v>
       </c>
       <c r="K16">
-        <v>1.644330065272555</v>
+        <v>0.4985419421441293</v>
       </c>
       <c r="L16">
-        <v>0.2639848551771422</v>
+        <v>0.1398715691149022</v>
       </c>
       <c r="M16">
-        <v>0.2906246603284188</v>
+        <v>0.2228537787250104</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.64268397066536</v>
+        <v>5.041825493958669</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.121620541730266</v>
+        <v>1.061053022677385</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09121852664213037</v>
+        <v>0.1962294672450682</v>
       </c>
       <c r="E17">
-        <v>0.09810967445018637</v>
+        <v>0.2497012686864961</v>
       </c>
       <c r="F17">
-        <v>1.034772360897406</v>
+        <v>2.019678438513793</v>
       </c>
       <c r="G17">
-        <v>0.0008169696399371213</v>
+        <v>0.00250215258029072</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1603614483101858</v>
+        <v>0.3616916104281112</v>
       </c>
       <c r="K17">
-        <v>1.579138112177873</v>
+        <v>0.4785658792991114</v>
       </c>
       <c r="L17">
-        <v>0.2529575840197538</v>
+        <v>0.1368046111036847</v>
       </c>
       <c r="M17">
-        <v>0.2790950648158912</v>
+        <v>0.219901644680057</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.620478604311472</v>
+        <v>5.048223443804233</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.096843851717495</v>
+        <v>1.055112463749964</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09039461500491086</v>
+        <v>0.1961863774368098</v>
       </c>
       <c r="E18">
-        <v>0.09858733839976086</v>
+        <v>0.2500197545899008</v>
       </c>
       <c r="F18">
-        <v>1.02947223885657</v>
+        <v>2.021009384386559</v>
       </c>
       <c r="G18">
-        <v>0.0008179486189134928</v>
+        <v>0.002502751661420996</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1613861672814787</v>
+        <v>0.3621606736253575</v>
       </c>
       <c r="K18">
-        <v>1.541681876121089</v>
+        <v>0.4670697065991476</v>
       </c>
       <c r="L18">
-        <v>0.246626046309629</v>
+        <v>0.1350433665052293</v>
       </c>
       <c r="M18">
-        <v>0.2724820263084879</v>
+        <v>0.2182105658875741</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.608252165936335</v>
+        <v>5.052128807608113</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.088469888157078</v>
+        <v>1.053107524159174</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09011701761230029</v>
+        <v>0.1961726891955777</v>
       </c>
       <c r="E19">
-        <v>0.09875049557369397</v>
+        <v>0.250128531384787</v>
       </c>
       <c r="F19">
-        <v>1.027710709201855</v>
+        <v>2.021474725448385</v>
       </c>
       <c r="G19">
-        <v>0.0008182813087021435</v>
+        <v>0.002502955948924291</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1617349736264244</v>
+        <v>0.3623206380932023</v>
       </c>
       <c r="K19">
-        <v>1.529006281938251</v>
+        <v>0.4631762085141418</v>
       </c>
       <c r="L19">
-        <v>0.2444841059611207</v>
+        <v>0.1344475221954298</v>
       </c>
       <c r="M19">
-        <v>0.2702460315224755</v>
+        <v>0.21763918689485</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.604204506062246</v>
+        <v>5.053489822539177</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.126213378652579</v>
+        <v>1.062155537636954</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0913716668719573</v>
+        <v>0.1962378699506147</v>
       </c>
       <c r="E20">
-        <v>0.09802194951951648</v>
+        <v>0.2496427718157452</v>
       </c>
       <c r="F20">
-        <v>1.035769105634557</v>
+        <v>2.019439094225092</v>
       </c>
       <c r="G20">
-        <v>0.0008167890311693566</v>
+        <v>0.002502042391598324</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1601726774660546</v>
+        <v>0.3616053423263699</v>
       </c>
       <c r="K20">
-        <v>1.586073599706879</v>
+        <v>0.4806930395472477</v>
       </c>
       <c r="L20">
-        <v>0.2541302900665272</v>
+        <v>0.1371308063481962</v>
       </c>
       <c r="M20">
-        <v>0.2803204716088814</v>
+        <v>0.2202151901921638</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.622785542167122</v>
+        <v>5.047519041534343</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.254134004398963</v>
+        <v>1.093000571574663</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09568475560451617</v>
+        <v>0.1965193615668568</v>
       </c>
       <c r="E21">
-        <v>0.09567440210097633</v>
+        <v>0.2480761745995883</v>
       </c>
       <c r="F21">
-        <v>1.065223946496062</v>
+        <v>2.013621893419469</v>
       </c>
       <c r="G21">
-        <v>0.0008118583117791122</v>
+        <v>0.002499073493079191</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1550531289275474</v>
+        <v>0.3592817638115497</v>
       </c>
       <c r="K21">
-        <v>1.778333765882223</v>
+        <v>0.5394684436606099</v>
       </c>
       <c r="L21">
-        <v>0.2866790923452243</v>
+        <v>0.1461793011993677</v>
       </c>
       <c r="M21">
-        <v>0.3143982034774666</v>
+        <v>0.228952456003725</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.691861488558601</v>
+        <v>5.030150894756758</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.338641973196502</v>
+        <v>1.113488315477298</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09857967090439956</v>
+        <v>0.1967496742375872</v>
       </c>
       <c r="E22">
-        <v>0.0942159742029256</v>
+        <v>0.2471009966986237</v>
       </c>
       <c r="F22">
-        <v>1.086351057197817</v>
+        <v>2.010581019033992</v>
       </c>
       <c r="G22">
-        <v>0.0008086952715613862</v>
+        <v>0.002497207769348082</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1518044642578622</v>
+        <v>0.3578224401493824</v>
       </c>
       <c r="K22">
-        <v>1.904466320885518</v>
+        <v>0.5778195707460725</v>
       </c>
       <c r="L22">
-        <v>0.3080712491369582</v>
+        <v>0.1521169724205294</v>
       </c>
       <c r="M22">
-        <v>0.3368598888905083</v>
+        <v>0.2347233363745929</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.742262049881248</v>
+        <v>5.020805542657627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.293450476716799</v>
+        <v>1.102523727748775</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09702742182371082</v>
+        <v>0.196622526861475</v>
       </c>
       <c r="E23">
-        <v>0.09498735350924825</v>
+        <v>0.2476170209480886</v>
       </c>
       <c r="F23">
-        <v>1.074896554515263</v>
+        <v>2.012134416203452</v>
       </c>
       <c r="G23">
-        <v>0.0008103781689121584</v>
+        <v>0.002498196732637164</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1535293924233736</v>
+        <v>0.3585958947910131</v>
       </c>
       <c r="K23">
-        <v>1.837097095727927</v>
+        <v>0.557356736971883</v>
       </c>
       <c r="L23">
-        <v>0.296641833900992</v>
+        <v>0.1489457757474639</v>
       </c>
       <c r="M23">
-        <v>0.3248530059509278</v>
+        <v>0.2316378132607895</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.714861356002558</v>
+        <v>5.02560989094232</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.124136713248362</v>
+        <v>1.061656982674691</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09130240830523917</v>
+        <v>0.1962340548341004</v>
       </c>
       <c r="E24">
-        <v>0.09806158329829096</v>
+        <v>0.2496692007205974</v>
       </c>
       <c r="F24">
-        <v>1.035317877612584</v>
+        <v>2.01954703339706</v>
       </c>
       <c r="G24">
-        <v>0.0008168706610564518</v>
+        <v>0.00250209218082331</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1602579856495532</v>
+        <v>0.3616443226812862</v>
       </c>
       <c r="K24">
-        <v>1.582937993927089</v>
+        <v>0.4797313866970683</v>
       </c>
       <c r="L24">
-        <v>0.2536000843895039</v>
+        <v>0.1369833272690784</v>
       </c>
       <c r="M24">
-        <v>0.2797664172565746</v>
+        <v>0.220073417122876</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.621740898750289</v>
+        <v>5.047836794381254</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9448883516200226</v>
+        <v>1.019005539842709</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08543277898013457</v>
+        <v>0.1960155098937406</v>
       </c>
       <c r="E25">
-        <v>0.1016962326385134</v>
+        <v>0.2520926470316862</v>
       </c>
       <c r="F25">
-        <v>1.000031668666693</v>
+        <v>2.030815736048609</v>
       </c>
       <c r="G25">
-        <v>0.0008241449769085853</v>
+        <v>0.002506616415351283</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1679290150007726</v>
+        <v>0.3651879633957127</v>
       </c>
       <c r="K25">
-        <v>1.310272974020052</v>
+        <v>0.3957548502674229</v>
       </c>
       <c r="L25">
-        <v>0.2075846809923121</v>
+        <v>0.1241869748498061</v>
       </c>
       <c r="M25">
-        <v>0.2318269098672374</v>
+        <v>0.2078640766264321</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.541950959155059</v>
+        <v>5.080431773593546</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888435254646026</v>
+        <v>0.8152801430948102</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1960285505503165</v>
+        <v>0.08135155325931009</v>
       </c>
       <c r="E2">
-        <v>0.254058699034891</v>
+        <v>0.1046396783781312</v>
       </c>
       <c r="F2">
-        <v>2.041934024148162</v>
+        <v>0.9797486874887724</v>
       </c>
       <c r="G2">
-        <v>0.002510227643564386</v>
+        <v>0.0008297514680269648</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3680183331625582</v>
+        <v>0.1739290933104631</v>
       </c>
       <c r="K2">
-        <v>0.3337214568804541</v>
+        <v>1.110167316352346</v>
       </c>
       <c r="L2">
-        <v>0.1148595582085647</v>
+        <v>0.1739478444071096</v>
       </c>
       <c r="M2">
-        <v>0.1991049508157339</v>
+        <v>0.1969941553089711</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.111854132152075</v>
+        <v>2.499009209146408</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9691841713211886</v>
+        <v>0.7286774805644995</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1961467046099656</v>
+        <v>0.0787255014531496</v>
       </c>
       <c r="E3">
-        <v>0.2555050508993162</v>
+        <v>0.1067980548893859</v>
       </c>
       <c r="F3">
-        <v>2.051232215889364</v>
+        <v>0.96924976819178</v>
       </c>
       <c r="G3">
-        <v>0.002512851120024611</v>
+        <v>0.0008337152804505923</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3700752552627353</v>
+        <v>0.1782133674674609</v>
       </c>
       <c r="K3">
-        <v>0.2915605766560532</v>
+        <v>0.974683059326992</v>
       </c>
       <c r="L3">
-        <v>0.1085986163030057</v>
+        <v>0.1512543598824863</v>
       </c>
       <c r="M3">
-        <v>0.1933142848010725</v>
+        <v>0.1736178966692279</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.137784986601332</v>
+        <v>2.478873000878423</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9575015919575947</v>
+        <v>0.676037542657923</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1962734576156038</v>
+        <v>0.07717896309340944</v>
       </c>
       <c r="E4">
-        <v>0.2564495180953346</v>
+        <v>0.1082029985586797</v>
       </c>
       <c r="F4">
-        <v>2.057812302379375</v>
+        <v>0.9643105780957839</v>
       </c>
       <c r="G4">
-        <v>0.002514549278901908</v>
+        <v>0.0008362325675729809</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3714069037410188</v>
+        <v>0.1809509334123276</v>
       </c>
       <c r="K4">
-        <v>0.2656168504571212</v>
+        <v>0.8914752371699421</v>
       </c>
       <c r="L4">
-        <v>0.1047847123493426</v>
+        <v>0.1373561479018122</v>
       </c>
       <c r="M4">
-        <v>0.1898312177501964</v>
+        <v>0.159360321859495</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.155995221828078</v>
+        <v>2.470657200464274</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9528390455586475</v>
+        <v>0.6547106935984175</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1963387881446863</v>
+        <v>0.07656487730726269</v>
       </c>
       <c r="E5">
-        <v>0.2568486065458897</v>
+        <v>0.1087954175443135</v>
       </c>
       <c r="F5">
-        <v>2.060712966378418</v>
+        <v>0.962663578346195</v>
       </c>
       <c r="G5">
-        <v>0.002515263317904631</v>
+        <v>0.000837279719803323</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3719668673353853</v>
+        <v>0.1820933375315108</v>
       </c>
       <c r="K5">
-        <v>0.2550308866107684</v>
+        <v>0.8575512653742123</v>
       </c>
       <c r="L5">
-        <v>0.1032382661623146</v>
+        <v>0.1316995057619437</v>
       </c>
       <c r="M5">
-        <v>0.1884301877890806</v>
+        <v>0.1535718473921577</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.163991899706161</v>
+        <v>2.468313725993823</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9520707804224173</v>
+        <v>0.6511766137339805</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1963504637127116</v>
+        <v>0.07646387178665748</v>
       </c>
       <c r="E6">
-        <v>0.256915733970704</v>
+        <v>0.1088949855865202</v>
       </c>
       <c r="F6">
-        <v>2.061207866435282</v>
+        <v>0.9624118111170574</v>
       </c>
       <c r="G6">
-        <v>0.002515383215778778</v>
+        <v>0.000837454897110872</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3720608950878068</v>
+        <v>0.1822846505942151</v>
       </c>
       <c r="K6">
-        <v>0.253272286333555</v>
+        <v>0.8519169311934434</v>
       </c>
       <c r="L6">
-        <v>0.1029819516550603</v>
+        <v>0.1307605912970331</v>
       </c>
       <c r="M6">
-        <v>0.1881986600298688</v>
+        <v>0.1526119121034952</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.165354533513693</v>
+        <v>2.467984174421616</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9574383128922932</v>
+        <v>0.6757494306986302</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1962742832419409</v>
+        <v>0.07717061650458845</v>
       </c>
       <c r="E7">
-        <v>0.2564548427671394</v>
+        <v>0.1082109077705864</v>
       </c>
       <c r="F7">
-        <v>2.057850533828962</v>
+        <v>0.9642869021645524</v>
       </c>
       <c r="G7">
-        <v>0.002514558819274704</v>
+        <v>0.0008362466029829414</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3714143854896212</v>
+        <v>0.1809662317715168</v>
       </c>
       <c r="K7">
-        <v>0.2654741390687718</v>
+        <v>0.8910178060312717</v>
       </c>
       <c r="L7">
-        <v>0.1047638248915419</v>
+        <v>0.1372798346698403</v>
       </c>
       <c r="M7">
-        <v>0.1898122484980753</v>
+        <v>0.1592821721041986</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.156100735698061</v>
+        <v>2.470621577757754</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9819846993280237</v>
+        <v>0.7853023900266862</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1960580676029267</v>
+        <v>0.08043215816409344</v>
       </c>
       <c r="E8">
-        <v>0.2545457118673724</v>
+        <v>0.105367257223925</v>
       </c>
       <c r="F8">
-        <v>2.044959400640728</v>
+        <v>0.9758076771278823</v>
       </c>
       <c r="G8">
-        <v>0.002511114131211626</v>
+        <v>0.0008311010734315085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3687133234936604</v>
+        <v>0.1753840516168408</v>
       </c>
       <c r="K8">
-        <v>0.3191965106682346</v>
+        <v>1.063449560421873</v>
       </c>
       <c r="L8">
-        <v>0.1126945590790172</v>
+        <v>0.1661144914431674</v>
       </c>
       <c r="M8">
-        <v>0.1970933767317256</v>
+        <v>0.1889126859268906</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.120320315984202</v>
+        <v>2.491181583994035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033180689164169</v>
+        <v>1.00486572095673</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1960622099243778</v>
+        <v>0.0873711765213514</v>
       </c>
       <c r="E9">
-        <v>0.2512481637570971</v>
+        <v>0.1004299420564845</v>
       </c>
       <c r="F9">
-        <v>2.026582046808727</v>
+        <v>1.010989829714482</v>
       </c>
       <c r="G9">
-        <v>0.002505049103377309</v>
+        <v>0.0008216568179488908</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3639600223844472</v>
+        <v>0.1652901272954392</v>
       </c>
       <c r="K9">
-        <v>0.4240745291840256</v>
+        <v>1.401979228085764</v>
       </c>
       <c r="L9">
-        <v>0.1284829461688162</v>
+        <v>0.2230401291057404</v>
       </c>
       <c r="M9">
-        <v>0.2119412074431715</v>
+        <v>0.2478948156540106</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.068299715067866</v>
+        <v>2.566247805755694</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.07263723059981</v>
+        <v>1.169799455594415</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1963237889539187</v>
+        <v>0.09283114483395849</v>
       </c>
       <c r="E10">
-        <v>0.2490957325793355</v>
+        <v>0.09720175861675262</v>
       </c>
       <c r="F10">
-        <v>2.017277789833258</v>
+        <v>1.045444279059794</v>
       </c>
       <c r="G10">
-        <v>0.002501009624164248</v>
+        <v>0.0008150879581575879</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3607968768074938</v>
+        <v>0.1583989988923791</v>
       </c>
       <c r="K10">
-        <v>0.5008204582658209</v>
+        <v>1.651774792804588</v>
       </c>
       <c r="L10">
-        <v>0.1402219052314138</v>
+        <v>0.2652447112418201</v>
       </c>
       <c r="M10">
-        <v>0.2231915708743557</v>
+        <v>0.2919428548109977</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.041125984329256</v>
+        <v>2.6452929825642</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.090982636389043</v>
+        <v>1.245793893491594</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1964984154201801</v>
+        <v>0.09540091031665554</v>
       </c>
       <c r="E11">
-        <v>0.2481748477935435</v>
+        <v>0.09582212351165875</v>
       </c>
       <c r="F11">
-        <v>2.013954466768595</v>
+        <v>1.063208129998543</v>
       </c>
       <c r="G11">
-        <v>0.002499261518042695</v>
+        <v>0.0008121742964430687</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3594288709765854</v>
+        <v>0.1553792148714348</v>
       </c>
       <c r="K11">
-        <v>0.5356634244135989</v>
+        <v>1.765849567734108</v>
       </c>
       <c r="L11">
-        <v>0.1455915613760226</v>
+        <v>0.2845633461976433</v>
       </c>
       <c r="M11">
-        <v>0.2283827478440799</v>
+        <v>0.3121793554903363</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.031159396204885</v>
+        <v>2.687085595213517</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.097986086158812</v>
+        <v>1.274725178004189</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1965724968063398</v>
+        <v>0.09638701895688939</v>
       </c>
       <c r="E12">
-        <v>0.247834482998134</v>
+        <v>0.09531267701429158</v>
       </c>
       <c r="F12">
-        <v>2.012826570044027</v>
+        <v>1.0702551464164</v>
       </c>
       <c r="G12">
-        <v>0.002498612355301897</v>
+        <v>0.0008110812003741441</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3589210074769156</v>
+        <v>0.1542523620685472</v>
       </c>
       <c r="K12">
-        <v>0.5488471139563842</v>
+        <v>1.809127923569264</v>
       </c>
       <c r="L12">
-        <v>0.1476290538646623</v>
+        <v>0.291899145897446</v>
       </c>
       <c r="M12">
-        <v>0.2303589370510579</v>
+        <v>0.3198747369246178</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.027729395498795</v>
+        <v>2.703808093702747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.096475266587476</v>
+        <v>1.268487215443031</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.196556189019546</v>
+        <v>0.09617405444753047</v>
       </c>
       <c r="E13">
-        <v>0.247907415475165</v>
+        <v>0.09542181416091466</v>
       </c>
       <c r="F13">
-        <v>2.013063678238808</v>
+        <v>1.068722875593963</v>
       </c>
       <c r="G13">
-        <v>0.002498751595416261</v>
+        <v>0.0008113161703968356</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3590299330751834</v>
+        <v>0.1544943061906277</v>
       </c>
       <c r="K13">
-        <v>0.5460082515321005</v>
+        <v>1.79980327710058</v>
       </c>
       <c r="L13">
-        <v>0.1471900621898357</v>
+        <v>0.290318298267934</v>
       </c>
       <c r="M13">
-        <v>0.2299328689149789</v>
+        <v>0.3182159029567515</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.028452806247202</v>
+        <v>2.700165770495573</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.0915576864397</v>
+        <v>1.248170914615031</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1965043509891089</v>
+        <v>0.09548177389828538</v>
       </c>
       <c r="E14">
-        <v>0.2481466784840212</v>
+        <v>0.09577994942790724</v>
       </c>
       <c r="F14">
-        <v>2.013859058126258</v>
+        <v>1.063781357000437</v>
       </c>
       <c r="G14">
-        <v>0.002499207854610553</v>
+        <v>0.0008120841643501056</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3593868850680724</v>
+        <v>0.1552861730490669</v>
       </c>
       <c r="K14">
-        <v>0.5367482703105964</v>
+        <v>1.769408383123221</v>
       </c>
       <c r="L14">
-        <v>0.1457591052664071</v>
+        <v>0.2851664426253393</v>
       </c>
       <c r="M14">
-        <v>0.2285451224347312</v>
+        <v>0.3128117907151804</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.030870312544522</v>
+        <v>2.688443053044551</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.088552860431435</v>
+        <v>1.235747092455512</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1964736332051018</v>
+        <v>0.09505944365370311</v>
       </c>
       <c r="E15">
-        <v>0.2482943212377409</v>
+        <v>0.09600101592598786</v>
       </c>
       <c r="F15">
-        <v>2.014363250684411</v>
+        <v>1.060796843926042</v>
       </c>
       <c r="G15">
-        <v>0.002499488992855511</v>
+        <v>0.000812555902246843</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3596068521500815</v>
+        <v>0.1557733899014626</v>
       </c>
       <c r="K15">
-        <v>0.5310748668470069</v>
+        <v>1.750801677942775</v>
       </c>
       <c r="L15">
-        <v>0.1448831356116642</v>
+        <v>0.2820135144281295</v>
       </c>
       <c r="M15">
-        <v>0.2276964382456228</v>
+        <v>0.3095059301591547</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.032395913380014</v>
+        <v>2.681381083676541</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.071446244158921</v>
+        <v>1.164853725621555</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1963134922601171</v>
+        <v>0.0926649878379493</v>
       </c>
       <c r="E16">
-        <v>0.2491570849543239</v>
+        <v>0.09729372725023566</v>
       </c>
       <c r="F16">
-        <v>2.017513258096031</v>
+        <v>1.044327081320588</v>
       </c>
       <c r="G16">
-        <v>0.002501125662634992</v>
+        <v>0.0008152798329508601</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3608877039713789</v>
+        <v>0.1585986746877008</v>
       </c>
       <c r="K16">
-        <v>0.4985419421441293</v>
+        <v>1.644330065272584</v>
       </c>
       <c r="L16">
-        <v>0.1398715691149022</v>
+        <v>0.2639848551770427</v>
       </c>
       <c r="M16">
-        <v>0.2228537787250104</v>
+        <v>0.2906246603284117</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.041825493958669</v>
+        <v>2.642683970665331</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.061053022677385</v>
+        <v>1.121620541730522</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1962294672450682</v>
+        <v>0.09121852664178931</v>
       </c>
       <c r="E17">
-        <v>0.2497012686864961</v>
+        <v>0.09810967445017305</v>
       </c>
       <c r="F17">
-        <v>2.019678438513793</v>
+        <v>1.034772360897406</v>
       </c>
       <c r="G17">
-        <v>0.00250215258029072</v>
+        <v>0.0008169696399370886</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3616916104281112</v>
+        <v>0.1603614483102334</v>
       </c>
       <c r="K17">
-        <v>0.4785658792991114</v>
+        <v>1.579138112177873</v>
       </c>
       <c r="L17">
-        <v>0.1368046111036847</v>
+        <v>0.2529575840197964</v>
       </c>
       <c r="M17">
-        <v>0.219901644680057</v>
+        <v>0.2790950648159125</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.048223443804233</v>
+        <v>2.620478604311472</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.055112463749964</v>
+        <v>1.096843851717324</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1961863774368098</v>
+        <v>0.09039461500503165</v>
       </c>
       <c r="E18">
-        <v>0.2500197545899008</v>
+        <v>0.09858733839976175</v>
       </c>
       <c r="F18">
-        <v>2.021009384386559</v>
+        <v>1.02947223885657</v>
       </c>
       <c r="G18">
-        <v>0.002502751661420996</v>
+        <v>0.0008179486189133818</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3621606736253575</v>
+        <v>0.1613861672814201</v>
       </c>
       <c r="K18">
-        <v>0.4670697065991476</v>
+        <v>1.541681876121089</v>
       </c>
       <c r="L18">
-        <v>0.1350433665052293</v>
+        <v>0.246626046309558</v>
       </c>
       <c r="M18">
-        <v>0.2182105658875741</v>
+        <v>0.2724820263085022</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.052128807608113</v>
+        <v>2.608252165936335</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.053107524159174</v>
+        <v>1.088469888156993</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1961726891955777</v>
+        <v>0.09011701761237134</v>
       </c>
       <c r="E19">
-        <v>0.250128531384787</v>
+        <v>0.09875049557368776</v>
       </c>
       <c r="F19">
-        <v>2.021474725448385</v>
+        <v>1.027710709201827</v>
       </c>
       <c r="G19">
-        <v>0.002502955948924291</v>
+        <v>0.0008182813087027961</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3623206380932023</v>
+        <v>0.1617349736264049</v>
       </c>
       <c r="K19">
-        <v>0.4631762085141418</v>
+        <v>1.52900628193828</v>
       </c>
       <c r="L19">
-        <v>0.1344475221954298</v>
+        <v>0.244484105961007</v>
       </c>
       <c r="M19">
-        <v>0.21763918689485</v>
+        <v>0.2702460315224684</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.053489822539177</v>
+        <v>2.604204506062217</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.062155537636954</v>
+        <v>1.126213378652722</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1962378699506147</v>
+        <v>0.09137166687213494</v>
       </c>
       <c r="E20">
-        <v>0.2496427718157452</v>
+        <v>0.09802194951951826</v>
       </c>
       <c r="F20">
-        <v>2.019439094225092</v>
+        <v>1.035769105634571</v>
       </c>
       <c r="G20">
-        <v>0.002502042391598324</v>
+        <v>0.0008167890311991943</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3616053423263699</v>
+        <v>0.1601726774661461</v>
       </c>
       <c r="K20">
-        <v>0.4806930395472477</v>
+        <v>1.586073599706737</v>
       </c>
       <c r="L20">
-        <v>0.1371308063481962</v>
+        <v>0.2541302900665272</v>
       </c>
       <c r="M20">
-        <v>0.2202151901921638</v>
+        <v>0.2803204716088814</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.047519041534343</v>
+        <v>2.622785542167122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.093000571574663</v>
+        <v>1.254134004398736</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1965193615668568</v>
+        <v>0.09568475560440248</v>
       </c>
       <c r="E21">
-        <v>0.2480761745995883</v>
+        <v>0.09567440210096478</v>
       </c>
       <c r="F21">
-        <v>2.013621893419469</v>
+        <v>1.065223946496062</v>
       </c>
       <c r="G21">
-        <v>0.002499073493079191</v>
+        <v>0.000811858311837934</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3592817638115497</v>
+        <v>0.1550531289275998</v>
       </c>
       <c r="K21">
-        <v>0.5394684436606099</v>
+        <v>1.778333765882167</v>
       </c>
       <c r="L21">
-        <v>0.1461793011993677</v>
+        <v>0.2866790923451106</v>
       </c>
       <c r="M21">
-        <v>0.228952456003725</v>
+        <v>0.3143982034774595</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.030150894756758</v>
+        <v>2.691861488558658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.113488315477298</v>
+        <v>1.338641973196559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1967496742375872</v>
+        <v>0.09857967090439956</v>
       </c>
       <c r="E22">
-        <v>0.2471009966986237</v>
+        <v>0.0942159742029558</v>
       </c>
       <c r="F22">
-        <v>2.010581019033992</v>
+        <v>1.086351057197831</v>
       </c>
       <c r="G22">
-        <v>0.002497207769348082</v>
+        <v>0.0008086952715914106</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3578224401493824</v>
+        <v>0.1518044642577236</v>
       </c>
       <c r="K22">
-        <v>0.5778195707460725</v>
+        <v>1.904466320885518</v>
       </c>
       <c r="L22">
-        <v>0.1521169724205294</v>
+        <v>0.3080712491370292</v>
       </c>
       <c r="M22">
-        <v>0.2347233363745929</v>
+        <v>0.3368598888904941</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.020805542657627</v>
+        <v>2.742262049881219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.102523727748775</v>
+        <v>1.29345047671697</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.196622526861475</v>
+        <v>0.09702742182359714</v>
       </c>
       <c r="E23">
-        <v>0.2476170209480886</v>
+        <v>0.09498735350925269</v>
       </c>
       <c r="F23">
-        <v>2.012134416203452</v>
+        <v>1.074896554515263</v>
       </c>
       <c r="G23">
-        <v>0.002498196732637164</v>
+        <v>0.0008103781689429873</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3585958947910131</v>
+        <v>0.1535293924233683</v>
       </c>
       <c r="K23">
-        <v>0.557356736971883</v>
+        <v>1.837097095727984</v>
       </c>
       <c r="L23">
-        <v>0.1489457757474639</v>
+        <v>0.2966418339009209</v>
       </c>
       <c r="M23">
-        <v>0.2316378132607895</v>
+        <v>0.3248530059509349</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.02560989094232</v>
+        <v>2.714861356002473</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.061656982674691</v>
+        <v>1.124136713248276</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1962340548341004</v>
+        <v>0.09130240830534575</v>
       </c>
       <c r="E24">
-        <v>0.2496692007205974</v>
+        <v>0.09806158329829096</v>
       </c>
       <c r="F24">
-        <v>2.01954703339706</v>
+        <v>1.035317877612584</v>
       </c>
       <c r="G24">
-        <v>0.00250209218082331</v>
+        <v>0.0008168706610287138</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3616443226812862</v>
+        <v>0.1602579856495892</v>
       </c>
       <c r="K24">
-        <v>0.4797313866970683</v>
+        <v>1.582937993927032</v>
       </c>
       <c r="L24">
-        <v>0.1369833272690784</v>
+        <v>0.2536000843895039</v>
       </c>
       <c r="M24">
-        <v>0.220073417122876</v>
+        <v>0.2797664172565533</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.047836794381254</v>
+        <v>2.621740898750204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.019005539842709</v>
+        <v>0.9448883516200226</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1960155098937406</v>
+        <v>0.08543277898026247</v>
       </c>
       <c r="E25">
-        <v>0.2520926470316862</v>
+        <v>0.101696232638548</v>
       </c>
       <c r="F25">
-        <v>2.030815736048609</v>
+        <v>1.000031668666686</v>
       </c>
       <c r="G25">
-        <v>0.002506616415351283</v>
+        <v>0.0008241449768539215</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3651879633957127</v>
+        <v>0.1679290150008113</v>
       </c>
       <c r="K25">
-        <v>0.3957548502674229</v>
+        <v>1.310272974020194</v>
       </c>
       <c r="L25">
-        <v>0.1241869748498061</v>
+        <v>0.20758468099244</v>
       </c>
       <c r="M25">
-        <v>0.2078640766264321</v>
+        <v>0.2318269098672374</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.080431773593546</v>
+        <v>2.541950959155031</v>
       </c>
     </row>
   </sheetData>
